--- a/task-matching-start/任务数据样例.xlsx
+++ b/task-matching-start/任务数据样例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yucang/code/task-matching/task-matching-start/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D80A099-C6D1-D542-901C-895F06C6C2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744E4646-8E5B-BD4A-8E21-ADE3FB99B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{BA82F000-D629-8649-957B-17338D518F1E}"/>
+    <workbookView xWindow="900" yWindow="1380" windowWidth="37960" windowHeight="20520" xr2:uid="{BA82F000-D629-8649-957B-17338D518F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="任务属性" sheetId="1" r:id="rId1"/>
@@ -4125,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A70FEEA-59E5-E744-BBA2-A3A67992C9BF}">
   <dimension ref="A1:AA533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
